--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/CappingRefreshR30_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/CappingRefreshR30_UT_SS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gp8john\Desktop\PAS-23996_capping_refresh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gp8john\Documents\CSAA\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -226,7 +226,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="00000"/>
+    <numFmt numFmtId="165" formatCode="0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -325,19 +325,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -624,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,106 +764,106 @@
       </c>
     </row>
     <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>2011</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>29220</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <v>8</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="4">
         <v>8</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5" t="s">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="4">
         <v>2</v>
       </c>
-      <c r="T2" s="6">
+      <c r="T2" s="7">
         <v>3</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V2" s="5">
+      <c r="V2" s="4">
         <v>2</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="X2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Y2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="Z2" s="5">
+      <c r="Z2" s="4">
         <v>16</v>
       </c>
-      <c r="AA2" s="5">
+      <c r="AA2" s="4">
         <v>54</v>
       </c>
-      <c r="AB2" s="5">
+      <c r="AB2" s="4">
         <v>0</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AC2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AD2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AE2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AF2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AG2" s="5">
+      <c r="AG2" s="4">
         <v>20180319</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AH2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
     </row>
     <row r="3" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -919,7 +919,7 @@
       <c r="S3" s="3">
         <v>2</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="8">
         <v>3</v>
       </c>
       <c r="U3" s="3" t="s">
@@ -937,31 +937,31 @@
       <c r="Y3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Z3" s="7">
+      <c r="Z3" s="5">
         <v>90</v>
       </c>
-      <c r="AA3" s="7">
+      <c r="AA3" s="5">
         <v>90</v>
       </c>
       <c r="AB3" s="3">
         <v>0</v>
       </c>
-      <c r="AC3" s="7" t="s">
+      <c r="AC3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD3" s="7" t="s">
+      <c r="AD3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AE3" s="7" t="s">
+      <c r="AE3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AF3" s="7" t="s">
+      <c r="AF3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AG3" s="7">
+      <c r="AG3" s="5">
         <v>20190501</v>
       </c>
-      <c r="AH3" s="8" t="s">
+      <c r="AH3" s="6" t="s">
         <v>38</v>
       </c>
       <c r="AI3" s="3"/>
@@ -1021,7 +1021,7 @@
       <c r="S4" s="3">
         <v>2</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="8">
         <v>3</v>
       </c>
       <c r="U4" s="3" t="s">
@@ -1039,31 +1039,31 @@
       <c r="Y4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Z4" s="8">
+      <c r="Z4" s="6">
         <v>30</v>
       </c>
-      <c r="AA4" s="8">
+      <c r="AA4" s="6">
         <v>30</v>
       </c>
       <c r="AB4" s="3">
         <v>0</v>
       </c>
-      <c r="AC4" s="8" t="s">
+      <c r="AC4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AD4" s="8" t="s">
+      <c r="AD4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AE4" s="8" t="s">
+      <c r="AE4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AF4" s="8" t="s">
+      <c r="AF4" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AG4" s="8">
+      <c r="AG4" s="6">
         <v>20190503</v>
       </c>
-      <c r="AH4" s="8" t="s">
+      <c r="AH4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="AI4" s="3"/>
@@ -1097,7 +1097,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EEAA9A8-E8A0-477E-8556-2A1C44099782}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{709459A5-910E-4D1B-BDFF-B118B5BCDAB6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
